--- a/src/main/resources/static/teamScoresDemo.xlsx
+++ b/src/main/resources/static/teamScoresDemo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244F60DD-EFE8-4059-ADB4-E5AD3862C9A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF2D7CD-B095-4DC2-9196-F64F404992BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teamScores" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>队伍id号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奖项中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奖项英文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍id号</t>
+  </si>
+  <si>
+    <t>注意：所有单元数据格式应当为文本格式</t>
+  </si>
+  <si>
+    <t>2300428248</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -60,14 +74,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -101,12 +115,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,35 +396,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
